--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I156"/>
+  <dimension ref="A1:I157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5838,6 +5838,41 @@
         <v>4339200</v>
       </c>
     </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="F157" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="G157" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H157" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="I157" t="n">
+        <v>2759800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I157"/>
+  <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5873,6 +5873,41 @@
         <v>2759800</v>
       </c>
     </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="F158" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G158" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="H158" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="I158" t="n">
+        <v>5476000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I158"/>
+  <dimension ref="A1:I159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5908,6 +5908,41 @@
         <v>5476000</v>
       </c>
     </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="F159" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="G159" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H159" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="I159" t="n">
+        <v>4475100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I159"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5943,6 +5943,41 @@
         <v>4475100</v>
       </c>
     </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="F160" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="G160" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="H160" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="I160" t="n">
+        <v>3771000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I160"/>
+  <dimension ref="A1:I161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5978,6 +5978,41 @@
         <v>3771000</v>
       </c>
     </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="F161" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="G161" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="H161" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="I161" t="n">
+        <v>2445800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I161"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6013,6 +6013,41 @@
         <v>2445800</v>
       </c>
     </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="F162" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="G162" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="H162" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="I162" t="n">
+        <v>2954400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I162"/>
+  <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6048,6 +6048,41 @@
         <v>2954400</v>
       </c>
     </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="F163" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G163" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="H163" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1879500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I163"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6083,6 +6083,41 @@
         <v>1879500</v>
       </c>
     </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F164" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="G164" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="H164" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1577400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I164"/>
+  <dimension ref="A1:I165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6118,6 +6118,41 @@
         <v>1577400</v>
       </c>
     </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="F165" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="G165" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="H165" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="I165" t="n">
+        <v>3612700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I165"/>
+  <dimension ref="A1:I166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6153,6 +6153,41 @@
         <v>3612700</v>
       </c>
     </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F166" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="G166" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H166" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="I166" t="n">
+        <v>3574100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I166"/>
+  <dimension ref="A1:I167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6188,6 +6188,41 @@
         <v>3574100</v>
       </c>
     </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="F167" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="G167" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H167" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="I167" t="n">
+        <v>6279300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I167"/>
+  <dimension ref="A1:I168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6223,6 +6223,41 @@
         <v>6279300</v>
       </c>
     </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="F168" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="G168" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="H168" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="I168" t="n">
+        <v>6457400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I168"/>
+  <dimension ref="A1:I170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6258,6 +6258,76 @@
         <v>6457400</v>
       </c>
     </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="F169" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="G169" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H169" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="I169" t="n">
+        <v>5779700</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F170" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G170" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="H170" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="I170" t="n">
+        <v>8964700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I170"/>
+  <dimension ref="A1:I172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6328,6 +6328,76 @@
         <v>8964700</v>
       </c>
     </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="F171" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G171" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="H171" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="I171" t="n">
+        <v>5346100</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="F172" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="G172" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="H172" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I172" t="n">
+        <v>3574000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I172"/>
+  <dimension ref="A1:I173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6398,6 +6398,41 @@
         <v>3574000</v>
       </c>
     </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="F173" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="G173" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="H173" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="I173" t="n">
+        <v>2100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I173"/>
+  <dimension ref="A1:I174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6433,6 +6433,41 @@
         <v>2100000</v>
       </c>
     </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="F174" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="G174" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="H174" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1338900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I174"/>
+  <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6468,6 +6468,41 @@
         <v>1338900</v>
       </c>
     </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="F175" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="G175" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="H175" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1241500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I175"/>
+  <dimension ref="A1:I176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6503,6 +6503,41 @@
         <v>1241500</v>
       </c>
     </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F176" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G176" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="H176" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="I176" t="n">
+        <v>6563100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I176"/>
+  <dimension ref="A1:I178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6538,6 +6538,76 @@
         <v>6563100</v>
       </c>
     </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F177" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G177" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H177" t="n">
+        <v>3</v>
+      </c>
+      <c r="I177" t="n">
+        <v>5057400</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="F178" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="G178" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="H178" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I178" t="n">
+        <v>3055600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I178"/>
+  <dimension ref="A1:I179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6608,6 +6608,41 @@
         <v>3055600</v>
       </c>
     </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G179" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="H179" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="I179" t="n">
+        <v>8615000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I179"/>
+  <dimension ref="A1:I180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6643,6 +6643,41 @@
         <v>8615000</v>
       </c>
     </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G180" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H180" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I180" t="n">
+        <v>7067800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I180"/>
+  <dimension ref="A1:I189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4125,11 +4125,11 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4146,25 +4146,25 @@
         <v>1.92</v>
       </c>
       <c r="F108" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="G108" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="H108" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="I108" t="n">
-        <v>1063300</v>
+        <v>1363200</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4178,28 +4178,28 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="F109" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="G109" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="H109" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="I109" t="n">
-        <v>993800</v>
+        <v>1148700</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1575331200</v>
+        <v>1574208000</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4213,28 +4213,28 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="F110" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="G110" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="H110" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="I110" t="n">
-        <v>10163900</v>
+        <v>746900</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1575417600</v>
+        <v>1574294400</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4248,28 +4248,28 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="F111" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H111" t="n">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="I111" t="n">
-        <v>2512600</v>
+        <v>943000</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1575504000</v>
+        <v>1574380800</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4283,28 +4283,28 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>2.03</v>
+        <v>1.92</v>
       </c>
       <c r="F112" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="G112" t="n">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="H112" t="n">
-        <v>2.07</v>
+        <v>1.92</v>
       </c>
       <c r="I112" t="n">
-        <v>4152900</v>
+        <v>1405200</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1575590400</v>
+        <v>1574640000</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4318,28 +4318,28 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>2.07</v>
+        <v>1.92</v>
       </c>
       <c r="F113" t="n">
-        <v>2.17</v>
+        <v>1.93</v>
       </c>
       <c r="G113" t="n">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="H113" t="n">
-        <v>2.14</v>
+        <v>1.92</v>
       </c>
       <c r="I113" t="n">
-        <v>7413200</v>
+        <v>1849300</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1575849600</v>
+        <v>1574726400</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4353,28 +4353,28 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="F114" t="n">
-        <v>2.24</v>
+        <v>1.95</v>
       </c>
       <c r="G114" t="n">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="H114" t="n">
-        <v>2.19</v>
+        <v>1.91</v>
       </c>
       <c r="I114" t="n">
-        <v>2698100</v>
+        <v>2163700</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1575936000</v>
+        <v>1574812800</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4388,28 +4388,28 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>2.21</v>
+        <v>1.91</v>
       </c>
       <c r="F115" t="n">
-        <v>2.22</v>
+        <v>1.94</v>
       </c>
       <c r="G115" t="n">
-        <v>2.15</v>
+        <v>1.83</v>
       </c>
       <c r="H115" t="n">
-        <v>2.17</v>
+        <v>1.87</v>
       </c>
       <c r="I115" t="n">
-        <v>1330600</v>
+        <v>3322300</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1576022400</v>
+        <v>1574899200</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4423,28 +4423,28 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>2.2</v>
+        <v>1.87</v>
       </c>
       <c r="F116" t="n">
-        <v>2.23</v>
+        <v>1.92</v>
       </c>
       <c r="G116" t="n">
-        <v>2.15</v>
+        <v>1.84</v>
       </c>
       <c r="H116" t="n">
-        <v>2.18</v>
+        <v>1.92</v>
       </c>
       <c r="I116" t="n">
-        <v>1617300</v>
+        <v>1322300</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1576108800</v>
+        <v>1574985600</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4458,28 +4458,28 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>2.19</v>
+        <v>1.92</v>
       </c>
       <c r="F117" t="n">
-        <v>2.21</v>
+        <v>1.92</v>
       </c>
       <c r="G117" t="n">
-        <v>2.16</v>
+        <v>1.87</v>
       </c>
       <c r="H117" t="n">
-        <v>2.2</v>
+        <v>1.88</v>
       </c>
       <c r="I117" t="n">
-        <v>1312700</v>
+        <v>1063300</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1576195200</v>
+        <v>1575244800</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4493,28 +4493,28 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>2.21</v>
+        <v>1.9</v>
       </c>
       <c r="F118" t="n">
-        <v>2.22</v>
+        <v>1.9</v>
       </c>
       <c r="G118" t="n">
-        <v>2.12</v>
+        <v>1.86</v>
       </c>
       <c r="H118" t="n">
-        <v>2.16</v>
+        <v>1.88</v>
       </c>
       <c r="I118" t="n">
-        <v>2238700</v>
+        <v>993800</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1576454400</v>
+        <v>1575331200</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4528,28 +4528,28 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>2.17</v>
+        <v>1.89</v>
       </c>
       <c r="F119" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="G119" t="n">
-        <v>2.15</v>
+        <v>1.89</v>
       </c>
       <c r="H119" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="I119" t="n">
-        <v>334100</v>
+        <v>10163900</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1576540800</v>
+        <v>1575417600</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4563,28 +4563,28 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>2.17</v>
+        <v>2.03</v>
       </c>
       <c r="F120" t="n">
-        <v>2.3</v>
+        <v>2.07</v>
       </c>
       <c r="G120" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="H120" t="n">
-        <v>2.26</v>
+        <v>2.02</v>
       </c>
       <c r="I120" t="n">
-        <v>4378900</v>
+        <v>2512600</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1576627200</v>
+        <v>1575504000</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4598,28 +4598,28 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>2.26</v>
+        <v>2.03</v>
       </c>
       <c r="F121" t="n">
-        <v>2.29</v>
+        <v>2.1</v>
       </c>
       <c r="G121" t="n">
-        <v>2.24</v>
+        <v>2.03</v>
       </c>
       <c r="H121" t="n">
-        <v>2.26</v>
+        <v>2.07</v>
       </c>
       <c r="I121" t="n">
-        <v>865000</v>
+        <v>4152900</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1576713600</v>
+        <v>1575590400</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4633,28 +4633,28 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>2.26</v>
+        <v>2.07</v>
       </c>
       <c r="F122" t="n">
-        <v>2.26</v>
+        <v>2.17</v>
       </c>
       <c r="G122" t="n">
-        <v>2.21</v>
+        <v>2.05</v>
       </c>
       <c r="H122" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="I122" t="n">
-        <v>1320900</v>
+        <v>7413200</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1576800000</v>
+        <v>1575849600</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4668,28 +4668,28 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="F123" t="n">
         <v>2.24</v>
       </c>
       <c r="G123" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="H123" t="n">
-        <v>2.24</v>
+        <v>2.19</v>
       </c>
       <c r="I123" t="n">
-        <v>504400</v>
+        <v>2698100</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1577059200</v>
+        <v>1575936000</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4703,28 +4703,28 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>2.24</v>
+        <v>2.21</v>
       </c>
       <c r="F124" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="G124" t="n">
-        <v>2.24</v>
+        <v>2.15</v>
       </c>
       <c r="H124" t="n">
-        <v>2.3</v>
+        <v>2.17</v>
       </c>
       <c r="I124" t="n">
-        <v>1237200</v>
+        <v>1330600</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1577145600</v>
+        <v>1576022400</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4738,28 +4738,28 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="F125" t="n">
-        <v>2.35</v>
+        <v>2.23</v>
       </c>
       <c r="G125" t="n">
-        <v>2.29</v>
+        <v>2.15</v>
       </c>
       <c r="H125" t="n">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="I125" t="n">
-        <v>970900</v>
+        <v>1617300</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1577318400</v>
+        <v>1576108800</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4773,28 +4773,28 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="F126" t="n">
-        <v>2.39</v>
+        <v>2.21</v>
       </c>
       <c r="G126" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="H126" t="n">
-        <v>2.31</v>
+        <v>2.2</v>
       </c>
       <c r="I126" t="n">
-        <v>1945900</v>
+        <v>1312700</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1577404800</v>
+        <v>1576195200</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4808,28 +4808,28 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>2.34</v>
+        <v>2.21</v>
       </c>
       <c r="F127" t="n">
-        <v>2.37</v>
+        <v>2.22</v>
       </c>
       <c r="G127" t="n">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="H127" t="n">
-        <v>2.35</v>
+        <v>2.16</v>
       </c>
       <c r="I127" t="n">
-        <v>615500</v>
+        <v>2238700</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1577664000</v>
+        <v>1576454400</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4843,28 +4843,28 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>2.37</v>
+        <v>2.17</v>
       </c>
       <c r="F128" t="n">
-        <v>2.39</v>
+        <v>2.18</v>
       </c>
       <c r="G128" t="n">
-        <v>2.34</v>
+        <v>2.15</v>
       </c>
       <c r="H128" t="n">
-        <v>2.37</v>
+        <v>2.17</v>
       </c>
       <c r="I128" t="n">
-        <v>956000</v>
+        <v>334100</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1577750400</v>
+        <v>1576540800</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4878,28 +4878,28 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>2.38</v>
+        <v>2.17</v>
       </c>
       <c r="F129" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="G129" t="n">
-        <v>2.34</v>
+        <v>2.16</v>
       </c>
       <c r="H129" t="n">
-        <v>2.4</v>
+        <v>2.26</v>
       </c>
       <c r="I129" t="n">
-        <v>1238900</v>
+        <v>4378900</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1577923200</v>
+        <v>1576627200</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4913,28 +4913,28 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>2.41</v>
+        <v>2.26</v>
       </c>
       <c r="F130" t="n">
-        <v>2.55</v>
+        <v>2.29</v>
       </c>
       <c r="G130" t="n">
-        <v>2.41</v>
+        <v>2.24</v>
       </c>
       <c r="H130" t="n">
-        <v>2.5</v>
+        <v>2.26</v>
       </c>
       <c r="I130" t="n">
-        <v>1519300</v>
+        <v>865000</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1578009600</v>
+        <v>1576713600</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4948,28 +4948,28 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>2.6</v>
+        <v>2.26</v>
       </c>
       <c r="F131" t="n">
-        <v>2.6</v>
+        <v>2.26</v>
       </c>
       <c r="G131" t="n">
-        <v>2.5</v>
+        <v>2.21</v>
       </c>
       <c r="H131" t="n">
-        <v>2.51</v>
+        <v>2.22</v>
       </c>
       <c r="I131" t="n">
-        <v>1795700</v>
+        <v>1320900</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1578268800</v>
+        <v>1576800000</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4983,28 +4983,28 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>2.5</v>
+        <v>2.21</v>
       </c>
       <c r="F132" t="n">
-        <v>2.51</v>
+        <v>2.24</v>
       </c>
       <c r="G132" t="n">
-        <v>2.41</v>
+        <v>2.21</v>
       </c>
       <c r="H132" t="n">
-        <v>2.44</v>
+        <v>2.24</v>
       </c>
       <c r="I132" t="n">
-        <v>1293900</v>
+        <v>504400</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1578355200</v>
+        <v>1577059200</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5018,28 +5018,28 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>2.45</v>
+        <v>2.24</v>
       </c>
       <c r="F133" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="G133" t="n">
-        <v>2.44</v>
+        <v>2.24</v>
       </c>
       <c r="H133" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="I133" t="n">
-        <v>830700</v>
+        <v>1237200</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1578441600</v>
+        <v>1577145600</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5053,28 +5053,28 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>2.42</v>
+        <v>2.29</v>
       </c>
       <c r="F134" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="G134" t="n">
         <v>2.29</v>
       </c>
       <c r="H134" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="I134" t="n">
-        <v>5266600</v>
+        <v>970900</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1578528000</v>
+        <v>1577318400</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5088,28 +5088,28 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="F135" t="n">
-        <v>2.45</v>
+        <v>2.39</v>
       </c>
       <c r="G135" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H135" t="n">
-        <v>2.39</v>
+        <v>2.31</v>
       </c>
       <c r="I135" t="n">
-        <v>1572700</v>
+        <v>1945900</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1578614400</v>
+        <v>1577404800</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5123,28 +5123,28 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="F136" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="G136" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H136" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="I136" t="n">
-        <v>549500</v>
+        <v>615500</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1578873600</v>
+        <v>1577664000</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5158,28 +5158,28 @@
         </is>
       </c>
       <c r="E137" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="F137" t="n">
         <v>2.39</v>
       </c>
-      <c r="F137" t="n">
-        <v>2.43</v>
-      </c>
       <c r="G137" t="n">
-        <v>2.39</v>
+        <v>2.34</v>
       </c>
       <c r="H137" t="n">
-        <v>2.41</v>
+        <v>2.37</v>
       </c>
       <c r="I137" t="n">
-        <v>728700</v>
+        <v>956000</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1578960000</v>
+        <v>1577750400</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5193,28 +5193,28 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>2.41</v>
+        <v>2.38</v>
       </c>
       <c r="F138" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="G138" t="n">
-        <v>2.39</v>
+        <v>2.34</v>
       </c>
       <c r="H138" t="n">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="I138" t="n">
-        <v>1452700</v>
+        <v>1238900</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1579046400</v>
+        <v>1577923200</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5228,28 +5228,28 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>2.45</v>
+        <v>2.41</v>
       </c>
       <c r="F139" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="G139" t="n">
-        <v>2.39</v>
+        <v>2.41</v>
       </c>
       <c r="H139" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="I139" t="n">
-        <v>675700</v>
+        <v>1519300</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1579132800</v>
+        <v>1578009600</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5263,28 +5263,28 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="F140" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="G140" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H140" t="n">
-        <v>2.54</v>
+        <v>2.51</v>
       </c>
       <c r="I140" t="n">
-        <v>4490300</v>
+        <v>1795700</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1579219200</v>
+        <v>1578268800</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5298,28 +5298,28 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="F141" t="n">
-        <v>2.62</v>
+        <v>2.51</v>
       </c>
       <c r="G141" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="H141" t="n">
-        <v>2.51</v>
+        <v>2.44</v>
       </c>
       <c r="I141" t="n">
-        <v>6813100</v>
+        <v>1293900</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1579478400</v>
+        <v>1578355200</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
       <c r="F142" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="G142" t="n">
-        <v>2.49</v>
+        <v>2.44</v>
       </c>
       <c r="H142" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="I142" t="n">
-        <v>1869400</v>
+        <v>830700</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1579564800</v>
+        <v>1578441600</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5368,28 +5368,28 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="F143" t="n">
-        <v>2.62</v>
+        <v>2.42</v>
       </c>
       <c r="G143" t="n">
-        <v>2.53</v>
+        <v>2.29</v>
       </c>
       <c r="H143" t="n">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="I143" t="n">
-        <v>2120300</v>
+        <v>5266600</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1579651200</v>
+        <v>1578528000</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5403,28 +5403,28 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>2.62</v>
+        <v>2.45</v>
       </c>
       <c r="F144" t="n">
-        <v>2.72</v>
+        <v>2.45</v>
       </c>
       <c r="G144" t="n">
-        <v>2.62</v>
+        <v>2.38</v>
       </c>
       <c r="H144" t="n">
-        <v>2.63</v>
+        <v>2.39</v>
       </c>
       <c r="I144" t="n">
-        <v>3341400</v>
+        <v>1572700</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1579737600</v>
+        <v>1578614400</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5438,28 +5438,28 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>2.63</v>
+        <v>2.42</v>
       </c>
       <c r="F145" t="n">
-        <v>2.78</v>
+        <v>2.42</v>
       </c>
       <c r="G145" t="n">
-        <v>2.63</v>
+        <v>2.34</v>
       </c>
       <c r="H145" t="n">
-        <v>2.78</v>
+        <v>2.38</v>
       </c>
       <c r="I145" t="n">
-        <v>2727500</v>
+        <v>549500</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1579824000</v>
+        <v>1578873600</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5473,28 +5473,28 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>2.78</v>
+        <v>2.39</v>
       </c>
       <c r="F146" t="n">
-        <v>2.91</v>
+        <v>2.43</v>
       </c>
       <c r="G146" t="n">
-        <v>2.78</v>
+        <v>2.39</v>
       </c>
       <c r="H146" t="n">
-        <v>2.84</v>
+        <v>2.41</v>
       </c>
       <c r="I146" t="n">
-        <v>2611600</v>
+        <v>728700</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1580169600</v>
+        <v>1578960000</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5508,28 +5508,28 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>2.79</v>
+        <v>2.41</v>
       </c>
       <c r="F147" t="n">
-        <v>2.82</v>
+        <v>2.47</v>
       </c>
       <c r="G147" t="n">
-        <v>2.73</v>
+        <v>2.39</v>
       </c>
       <c r="H147" t="n">
-        <v>2.73</v>
+        <v>2.43</v>
       </c>
       <c r="I147" t="n">
-        <v>2665400</v>
+        <v>1452700</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1580256000</v>
+        <v>1579046400</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5543,28 +5543,28 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>2.76</v>
+        <v>2.45</v>
       </c>
       <c r="F148" t="n">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="G148" t="n">
-        <v>2.74</v>
+        <v>2.39</v>
       </c>
       <c r="H148" t="n">
-        <v>2.78</v>
+        <v>2.4</v>
       </c>
       <c r="I148" t="n">
-        <v>1433300</v>
+        <v>675700</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1580342400</v>
+        <v>1579132800</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5578,28 +5578,28 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>2.8</v>
+        <v>2.42</v>
       </c>
       <c r="F149" t="n">
-        <v>2.8</v>
+        <v>2.54</v>
       </c>
       <c r="G149" t="n">
-        <v>2.68</v>
+        <v>2.4</v>
       </c>
       <c r="H149" t="n">
-        <v>2.68</v>
+        <v>2.54</v>
       </c>
       <c r="I149" t="n">
-        <v>2930800</v>
+        <v>4490300</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1580428800</v>
+        <v>1579219200</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5613,28 +5613,28 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>2.69</v>
+        <v>2.56</v>
       </c>
       <c r="F150" t="n">
-        <v>2.73</v>
+        <v>2.62</v>
       </c>
       <c r="G150" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H150" t="n">
         <v>2.51</v>
       </c>
-      <c r="H150" t="n">
-        <v>2.53</v>
-      </c>
       <c r="I150" t="n">
-        <v>3435500</v>
+        <v>6813100</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1580688000</v>
+        <v>1579478400</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5648,28 +5648,28 @@
         </is>
       </c>
       <c r="E151" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="G151" t="n">
         <v>2.49</v>
       </c>
-      <c r="F151" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="G151" t="n">
-        <v>2.31</v>
-      </c>
       <c r="H151" t="n">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="I151" t="n">
-        <v>4723400</v>
+        <v>1869400</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1580774400</v>
+        <v>1579564800</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5683,28 +5683,28 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="F152" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="G152" t="n">
-        <v>2.6</v>
+        <v>2.53</v>
       </c>
       <c r="H152" t="n">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="I152" t="n">
-        <v>2838900</v>
+        <v>2120300</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1580860800</v>
+        <v>1579651200</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5718,28 +5718,28 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="F153" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="G153" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="H153" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="I153" t="n">
-        <v>2095600</v>
+        <v>3341400</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1580947200</v>
+        <v>1579737600</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5753,28 +5753,28 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="F154" t="n">
-        <v>2.89</v>
+        <v>2.78</v>
       </c>
       <c r="G154" t="n">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="H154" t="n">
-        <v>2.87</v>
+        <v>2.78</v>
       </c>
       <c r="I154" t="n">
-        <v>5242100</v>
+        <v>2727500</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1581033600</v>
+        <v>1579824000</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5788,28 +5788,28 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="F155" t="n">
-        <v>2.98</v>
+        <v>2.91</v>
       </c>
       <c r="G155" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="H155" t="n">
-        <v>2.95</v>
+        <v>2.84</v>
       </c>
       <c r="I155" t="n">
-        <v>2900400</v>
+        <v>2611600</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1581292800</v>
+        <v>1580169600</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5823,28 +5823,28 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>2.92</v>
+        <v>2.79</v>
       </c>
       <c r="F156" t="n">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="G156" t="n">
-        <v>2.86</v>
+        <v>2.73</v>
       </c>
       <c r="H156" t="n">
-        <v>2.97</v>
+        <v>2.73</v>
       </c>
       <c r="I156" t="n">
-        <v>4339200</v>
+        <v>2665400</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1581379200</v>
+        <v>1580256000</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5858,28 +5858,28 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>2.98</v>
+        <v>2.76</v>
       </c>
       <c r="F157" t="n">
-        <v>3.09</v>
+        <v>2.8</v>
       </c>
       <c r="G157" t="n">
-        <v>2.98</v>
+        <v>2.74</v>
       </c>
       <c r="H157" t="n">
-        <v>3.08</v>
+        <v>2.78</v>
       </c>
       <c r="I157" t="n">
-        <v>2759800</v>
+        <v>1433300</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1581465600</v>
+        <v>1580342400</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5893,28 +5893,28 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>3.09</v>
+        <v>2.8</v>
       </c>
       <c r="F158" t="n">
-        <v>3.35</v>
+        <v>2.8</v>
       </c>
       <c r="G158" t="n">
-        <v>3.09</v>
+        <v>2.68</v>
       </c>
       <c r="H158" t="n">
-        <v>3.32</v>
+        <v>2.68</v>
       </c>
       <c r="I158" t="n">
-        <v>5476000</v>
+        <v>2930800</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1581552000</v>
+        <v>1580428800</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5928,28 +5928,28 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>3.35</v>
+        <v>2.69</v>
       </c>
       <c r="F159" t="n">
-        <v>3.44</v>
+        <v>2.73</v>
       </c>
       <c r="G159" t="n">
-        <v>3.3</v>
+        <v>2.51</v>
       </c>
       <c r="H159" t="n">
-        <v>3.34</v>
+        <v>2.53</v>
       </c>
       <c r="I159" t="n">
-        <v>4475100</v>
+        <v>3435500</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1581638400</v>
+        <v>1580688000</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>3.32</v>
+        <v>2.49</v>
       </c>
       <c r="F160" t="n">
-        <v>3.44</v>
+        <v>2.64</v>
       </c>
       <c r="G160" t="n">
-        <v>3.24</v>
+        <v>2.31</v>
       </c>
       <c r="H160" t="n">
-        <v>3.44</v>
+        <v>2.58</v>
       </c>
       <c r="I160" t="n">
-        <v>3771000</v>
+        <v>4723400</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1581897600</v>
+        <v>1580774400</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5998,28 +5998,28 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>3.44</v>
+        <v>2.65</v>
       </c>
       <c r="F161" t="n">
-        <v>3.49</v>
+        <v>2.72</v>
       </c>
       <c r="G161" t="n">
-        <v>3.36</v>
+        <v>2.6</v>
       </c>
       <c r="H161" t="n">
-        <v>3.37</v>
+        <v>2.6</v>
       </c>
       <c r="I161" t="n">
-        <v>2445800</v>
+        <v>2838900</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1581984000</v>
+        <v>1580860800</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -6033,28 +6033,28 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>3.37</v>
+        <v>2.66</v>
       </c>
       <c r="F162" t="n">
-        <v>3.37</v>
+        <v>2.71</v>
       </c>
       <c r="G162" t="n">
-        <v>3.23</v>
+        <v>2.65</v>
       </c>
       <c r="H162" t="n">
-        <v>3.26</v>
+        <v>2.7</v>
       </c>
       <c r="I162" t="n">
-        <v>2954400</v>
+        <v>2095600</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1582070400</v>
+        <v>1580947200</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -6068,28 +6068,28 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>3.26</v>
+        <v>2.73</v>
       </c>
       <c r="F163" t="n">
-        <v>3.35</v>
+        <v>2.89</v>
       </c>
       <c r="G163" t="n">
-        <v>3.26</v>
+        <v>2.73</v>
       </c>
       <c r="H163" t="n">
-        <v>3.29</v>
+        <v>2.87</v>
       </c>
       <c r="I163" t="n">
-        <v>1879500</v>
+        <v>5242100</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1582156800</v>
+        <v>1581033600</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -6103,28 +6103,28 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="F164" t="n">
-        <v>3.33</v>
+        <v>2.98</v>
       </c>
       <c r="G164" t="n">
-        <v>3.21</v>
+        <v>2.88</v>
       </c>
       <c r="H164" t="n">
-        <v>3.29</v>
+        <v>2.95</v>
       </c>
       <c r="I164" t="n">
-        <v>1577400</v>
+        <v>2900400</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1582243200</v>
+        <v>1581292800</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -6138,28 +6138,28 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>3.29</v>
+        <v>2.92</v>
       </c>
       <c r="F165" t="n">
-        <v>3.47</v>
+        <v>3.05</v>
       </c>
       <c r="G165" t="n">
-        <v>3.23</v>
+        <v>2.86</v>
       </c>
       <c r="H165" t="n">
-        <v>3.42</v>
+        <v>2.97</v>
       </c>
       <c r="I165" t="n">
-        <v>3612700</v>
+        <v>4339200</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1582502400</v>
+        <v>1581379200</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6173,28 +6173,28 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="F166" t="n">
-        <v>3.38</v>
+        <v>3.09</v>
       </c>
       <c r="G166" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="H166" t="n">
-        <v>3.32</v>
+        <v>3.08</v>
       </c>
       <c r="I166" t="n">
-        <v>3574100</v>
+        <v>2759800</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1582588800</v>
+        <v>1581465600</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6208,28 +6208,28 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>3.28</v>
+        <v>3.09</v>
       </c>
       <c r="F167" t="n">
-        <v>3.81</v>
+        <v>3.35</v>
       </c>
       <c r="G167" t="n">
-        <v>3.2</v>
+        <v>3.09</v>
       </c>
       <c r="H167" t="n">
-        <v>3.79</v>
+        <v>3.32</v>
       </c>
       <c r="I167" t="n">
-        <v>6279300</v>
+        <v>5476000</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1582675200</v>
+        <v>1581552000</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6243,28 +6243,28 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>3.78</v>
+        <v>3.35</v>
       </c>
       <c r="F168" t="n">
-        <v>3.88</v>
+        <v>3.44</v>
       </c>
       <c r="G168" t="n">
-        <v>3.58</v>
+        <v>3.3</v>
       </c>
       <c r="H168" t="n">
-        <v>3.68</v>
+        <v>3.34</v>
       </c>
       <c r="I168" t="n">
-        <v>6457400</v>
+        <v>4475100</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1582761600</v>
+        <v>1581638400</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6278,28 +6278,28 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>3.68</v>
+        <v>3.32</v>
       </c>
       <c r="F169" t="n">
-        <v>3.68</v>
+        <v>3.44</v>
       </c>
       <c r="G169" t="n">
-        <v>3.35</v>
+        <v>3.24</v>
       </c>
       <c r="H169" t="n">
-        <v>3.41</v>
+        <v>3.44</v>
       </c>
       <c r="I169" t="n">
-        <v>5779700</v>
+        <v>3771000</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1582848000</v>
+        <v>1581897600</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6313,28 +6313,28 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>3.3</v>
+        <v>3.44</v>
       </c>
       <c r="F170" t="n">
-        <v>3.35</v>
+        <v>3.49</v>
       </c>
       <c r="G170" t="n">
-        <v>3.06</v>
+        <v>3.36</v>
       </c>
       <c r="H170" t="n">
-        <v>3.23</v>
+        <v>3.37</v>
       </c>
       <c r="I170" t="n">
-        <v>8964700</v>
+        <v>2445800</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1583107200</v>
+        <v>1581984000</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6348,28 +6348,28 @@
         </is>
       </c>
       <c r="E171" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="F171" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="G171" t="n">
         <v>3.23</v>
       </c>
-      <c r="F171" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="G171" t="n">
-        <v>3.11</v>
-      </c>
       <c r="H171" t="n">
-        <v>3.39</v>
+        <v>3.26</v>
       </c>
       <c r="I171" t="n">
-        <v>5346100</v>
+        <v>2954400</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1583193600</v>
+        <v>1582070400</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6383,28 +6383,28 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>3.51</v>
+        <v>3.26</v>
       </c>
       <c r="F172" t="n">
-        <v>3.62</v>
+        <v>3.35</v>
       </c>
       <c r="G172" t="n">
-        <v>3.39</v>
+        <v>3.26</v>
       </c>
       <c r="H172" t="n">
-        <v>3.45</v>
+        <v>3.29</v>
       </c>
       <c r="I172" t="n">
-        <v>3574000</v>
+        <v>1879500</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1583280000</v>
+        <v>1582156800</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6418,28 +6418,28 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>3.39</v>
+        <v>3.3</v>
       </c>
       <c r="F173" t="n">
-        <v>3.52</v>
+        <v>3.33</v>
       </c>
       <c r="G173" t="n">
-        <v>3.34</v>
+        <v>3.21</v>
       </c>
       <c r="H173" t="n">
-        <v>3.43</v>
+        <v>3.29</v>
       </c>
       <c r="I173" t="n">
-        <v>2100000</v>
+        <v>1577400</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>1583366400</v>
+        <v>1582243200</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6453,28 +6453,28 @@
         </is>
       </c>
       <c r="E174" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="F174" t="n">
         <v>3.47</v>
       </c>
-      <c r="F174" t="n">
-        <v>3.52</v>
-      </c>
       <c r="G174" t="n">
-        <v>3.43</v>
+        <v>3.23</v>
       </c>
       <c r="H174" t="n">
-        <v>3.46</v>
+        <v>3.42</v>
       </c>
       <c r="I174" t="n">
-        <v>1338900</v>
+        <v>3612700</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1583452800</v>
+        <v>1582502400</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6488,28 +6488,28 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>3.43</v>
+        <v>3.2</v>
       </c>
       <c r="F175" t="n">
-        <v>3.48</v>
+        <v>3.38</v>
       </c>
       <c r="G175" t="n">
-        <v>3.33</v>
+        <v>3.15</v>
       </c>
       <c r="H175" t="n">
-        <v>3.37</v>
+        <v>3.32</v>
       </c>
       <c r="I175" t="n">
-        <v>1241500</v>
+        <v>3574100</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1583712000</v>
+        <v>1582588800</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6523,28 +6523,28 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>3.25</v>
+        <v>3.28</v>
       </c>
       <c r="F176" t="n">
-        <v>3.25</v>
+        <v>3.81</v>
       </c>
       <c r="G176" t="n">
-        <v>2.53</v>
+        <v>3.2</v>
       </c>
       <c r="H176" t="n">
-        <v>2.81</v>
+        <v>3.79</v>
       </c>
       <c r="I176" t="n">
-        <v>6563100</v>
+        <v>6279300</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1583798400</v>
+        <v>1582675200</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6558,28 +6558,28 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>2.65</v>
+        <v>3.78</v>
       </c>
       <c r="F177" t="n">
-        <v>3.05</v>
+        <v>3.88</v>
       </c>
       <c r="G177" t="n">
-        <v>2.62</v>
+        <v>3.58</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>3.68</v>
       </c>
       <c r="I177" t="n">
-        <v>5057400</v>
+        <v>6457400</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1583884800</v>
+        <v>1582761600</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6593,28 +6593,28 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>3.07</v>
+        <v>3.68</v>
       </c>
       <c r="F178" t="n">
-        <v>3.13</v>
+        <v>3.68</v>
       </c>
       <c r="G178" t="n">
-        <v>2.87</v>
+        <v>3.35</v>
       </c>
       <c r="H178" t="n">
-        <v>2.88</v>
+        <v>3.41</v>
       </c>
       <c r="I178" t="n">
-        <v>3055600</v>
+        <v>5779700</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1583971200</v>
+        <v>1582848000</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6628,53 +6628,368 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="F179" t="n">
-        <v>2.8</v>
+        <v>3.35</v>
       </c>
       <c r="G179" t="n">
-        <v>2.47</v>
+        <v>3.06</v>
       </c>
       <c r="H179" t="n">
-        <v>2.47</v>
+        <v>3.23</v>
       </c>
       <c r="I179" t="n">
-        <v>8615000</v>
+        <v>8964700</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="F180" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G180" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="H180" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="I180" t="n">
+        <v>5346100</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="F181" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="G181" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="H181" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I181" t="n">
+        <v>3574000</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="F182" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="G182" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="H182" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="I182" t="n">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="F183" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="G183" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="H183" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1338900</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="F184" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="G184" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="H184" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1241500</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F185" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G185" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="H185" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="I185" t="n">
+        <v>6563100</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F186" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G186" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H186" t="n">
+        <v>3</v>
+      </c>
+      <c r="I186" t="n">
+        <v>5057400</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="F187" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="G187" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="H187" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I187" t="n">
+        <v>3055600</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F188" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G188" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="H188" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="I188" t="n">
+        <v>8615000</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B189" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>0208</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>GREATEC</t>
-        </is>
-      </c>
-      <c r="E180" t="n">
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
         <v>2.19</v>
       </c>
-      <c r="F180" t="n">
+      <c r="F189" t="n">
         <v>2.48</v>
       </c>
-      <c r="G180" t="n">
+      <c r="G189" t="n">
         <v>2.14</v>
       </c>
-      <c r="H180" t="n">
+      <c r="H189" t="n">
         <v>2.4</v>
       </c>
-      <c r="I180" t="n">
+      <c r="I189" t="n">
         <v>7067800</v>
       </c>
     </row>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I189"/>
+  <dimension ref="A1:I190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6993,6 +6993,41 @@
         <v>7067800</v>
       </c>
     </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F190" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="I190" t="n">
+        <v>5168600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I190"/>
+  <dimension ref="A1:I191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7028,6 +7028,41 @@
         <v>5168600</v>
       </c>
     </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H191" t="n">
+        <v>2</v>
+      </c>
+      <c r="I191" t="n">
+        <v>6105300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I191"/>
+  <dimension ref="A1:I192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7063,6 +7063,41 @@
         <v>6105300</v>
       </c>
     </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>2</v>
+      </c>
+      <c r="F192" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I192" t="n">
+        <v>2838200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I192"/>
+  <dimension ref="A1:I193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7098,6 +7098,41 @@
         <v>2838200</v>
       </c>
     </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I193" t="n">
+        <v>8566000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I193"/>
+  <dimension ref="A1:I194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7133,6 +7133,41 @@
         <v>8566000</v>
       </c>
     </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I194" t="n">
+        <v>16678200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I194"/>
+  <dimension ref="A1:I195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7168,6 +7168,41 @@
         <v>16678200</v>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I195" t="n">
+        <v>7404700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I195"/>
+  <dimension ref="A1:I196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7203,6 +7203,41 @@
         <v>7404700</v>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G196" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I196" t="n">
+        <v>6515900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I196"/>
+  <dimension ref="A1:I197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7238,6 +7238,41 @@
         <v>6515900</v>
       </c>
     </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I197" t="n">
+        <v>11460400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I197"/>
+  <dimension ref="A1:I198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7273,6 +7273,41 @@
         <v>11460400</v>
       </c>
     </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G198" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I198" t="n">
+        <v>5744100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I198"/>
+  <dimension ref="A1:I199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7308,6 +7308,41 @@
         <v>5744100</v>
       </c>
     </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G199" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I199" t="n">
+        <v>7613600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I199"/>
+  <dimension ref="A1:I200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7343,6 +7343,41 @@
         <v>7613600</v>
       </c>
     </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F200" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G200" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H200" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="I200" t="n">
+        <v>6080300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I200"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7378,6 +7378,41 @@
         <v>6080300</v>
       </c>
     </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F201" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="G201" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="H201" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="I201" t="n">
+        <v>7724500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I201"/>
+  <dimension ref="A1:I202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7413,6 +7413,41 @@
         <v>7724500</v>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="F202" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="G202" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H202" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I202" t="n">
+        <v>8144700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I202"/>
+  <dimension ref="A1:I203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7448,6 +7448,41 @@
         <v>8144700</v>
       </c>
     </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="F203" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G203" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="H203" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I203" t="n">
+        <v>3876500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I203"/>
+  <dimension ref="A1:I204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7483,6 +7483,41 @@
         <v>3876500</v>
       </c>
     </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="F204" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="G204" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H204" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="I204" t="n">
+        <v>3887400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I204"/>
+  <dimension ref="A1:I205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7518,6 +7518,41 @@
         <v>3887400</v>
       </c>
     </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F205" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G205" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="H205" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I205" t="n">
+        <v>2930800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I205"/>
+  <dimension ref="A1:I206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7553,6 +7553,41 @@
         <v>2930800</v>
       </c>
     </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="F206" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G206" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="H206" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I206" t="n">
+        <v>9408400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I206"/>
+  <dimension ref="A1:I207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7588,6 +7588,41 @@
         <v>9408400</v>
       </c>
     </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="F207" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="G207" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="H207" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="I207" t="n">
+        <v>3967100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I207"/>
+  <dimension ref="A1:I208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7623,6 +7623,41 @@
         <v>3967100</v>
       </c>
     </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="F208" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="G208" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H208" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="I208" t="n">
+        <v>2096200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I208"/>
+  <dimension ref="A1:I209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7658,6 +7658,41 @@
         <v>2096200</v>
       </c>
     </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="F209" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="G209" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H209" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I209" t="n">
+        <v>1660500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I209"/>
+  <dimension ref="A1:I210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7693,6 +7693,41 @@
         <v>1660500</v>
       </c>
     </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="F210" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G210" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H210" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I210" t="n">
+        <v>2740300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I210"/>
+  <dimension ref="A1:I211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7728,6 +7728,41 @@
         <v>2740300</v>
       </c>
     </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="F211" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G211" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H211" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I211" t="n">
+        <v>7610900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I211"/>
+  <dimension ref="A1:I212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7763,6 +7763,41 @@
         <v>7610900</v>
       </c>
     </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F212" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="G212" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H212" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I212" t="n">
+        <v>4955600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I212"/>
+  <dimension ref="A1:I213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7798,6 +7798,41 @@
         <v>4955600</v>
       </c>
     </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F213" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="G213" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H213" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="I213" t="n">
+        <v>3440700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I213"/>
+  <dimension ref="A1:I214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7833,6 +7833,41 @@
         <v>3440700</v>
       </c>
     </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F214" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G214" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H214" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="I214" t="n">
+        <v>5397500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I214"/>
+  <dimension ref="A1:I216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7868,6 +7868,76 @@
         <v>5397500</v>
       </c>
     </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F215" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G215" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H215" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I215" t="n">
+        <v>4262300</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F216" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G216" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H216" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="I216" t="n">
+        <v>3079200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I216"/>
+  <dimension ref="A1:I217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7938,6 +7938,41 @@
         <v>3079200</v>
       </c>
     </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="F217" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="G217" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="H217" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I217" t="n">
+        <v>2354000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I217"/>
+  <dimension ref="A1:I220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7973,6 +7973,111 @@
         <v>2354000</v>
       </c>
     </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="F218" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G218" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="H218" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I218" t="n">
+        <v>1896900</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F219" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="G219" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H219" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I219" t="n">
+        <v>988400</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F220" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G220" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H220" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I220" t="n">
+        <v>2514400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I220"/>
+  <dimension ref="A1:I221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8078,6 +8078,41 @@
         <v>2514400</v>
       </c>
     </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="F221" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G221" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H221" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="I221" t="n">
+        <v>919500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I221"/>
+  <dimension ref="A1:I222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8113,6 +8113,41 @@
         <v>919500</v>
       </c>
     </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="F222" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="G222" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H222" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I222" t="n">
+        <v>4736900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0208.xlsx
+++ b/data/0208.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I222"/>
+  <dimension ref="A1:I225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8148,6 +8148,111 @@
         <v>4736900</v>
       </c>
     </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="F223" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="G223" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="H223" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I223" t="n">
+        <v>3340900</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F224" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="G224" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H224" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1732500</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="F225" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="G225" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="H225" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1500700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
